--- a/AlgorithmControl/接口协议.xlsx
+++ b/AlgorithmControl/接口协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DoNet\EMUROBOT\AlgorithmControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDB3059-004D-43F3-9EA1-92246D0332ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD890B2-BB31-47A0-BAFA-C5FBFF5350F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Redis配置" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>服务器名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,38 @@
   </si>
   <si>
     <t>[{"jclx":"0115","result":["0, 0, 8, 9","23, 2, 14, 11","67, 286, 10, 8","79, 403, 11, 10","75, 492, 14, 14"]},{"jclx":"0801","result":["1, 8, 5, 6","22, 69, 9, 12","123, 329, 11, 13","555, 154, 9, 5"]},{"jclx":"0201","result":["10, 5, 10, 11","26, 23, 7, 12","230, 286, 13, 12"]},{"jclx":"0107","result":["9, 12, 5, 5","233, 233, 12, 13","154, 109, 13, 12","288, 386, 11, 12"]},{"jclx":"0114","result":["13, 56, 5, 12","118, 19, 9, 5","65, 51, 14, 5","568, 210, 5, 12"]},{"jclx":"0103","result":["57, 50, 14, 11","81, 104, 10, 13","230, 22, 14, 8","164, 77, 8, 12","98, 69, 8, 9","245, 403, 13, 11"]},{"jclx":"0106","result":["39, 55, 11, 7","58, 9, 13, 14","100, 169, 7, 12","113, 304, 9, 10","236, 215, 12, 14"]},{"jclx":"0301","result":["103, 90, 14, 7","7, 19, 7, 5","22, 9, 6, 7","307, 345, 7, 10","214, 232, 9, 10","446, 364, 14, 9","186, 141, 6, 6"]},{"jclx":"0200","result":["72, 24, 13, 7","90, 90, 12, 8","122, 164, 7, 10","127, 308, 9, 14","387, 216, 5, 12","490, 10, 6, 6"]},{"jclx":"4201","result":["157, 23, 5, 8","93, 181, 13, 14","135, 98, 10, 13","53, 47, 14, 9","88, 328, 14, 10","252, 76, 8, 14"]},{"jclx":"0205","result":["49, 149, 9, 14","162, 131, 8, 6","60, 179, 14, 7","304, 186, 13, 13"]},{"jclx":"0112","result":["67, 225, 11, 13","220, 27, 13, 11","508, 444, 12, 14","94, 517, 8, 9"]},{"jclx":"0113","result":["121, 18, 10, 10","74, 70, 6, 11","237, 208, 5, 6","480, 352, 11, 5"]}]</t>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务端写入Redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成Redis key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法接口持续读取Redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现Redis key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用算法并传参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回写结果到Redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除Redis key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -289,12 +321,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -632,7 +666,75 @@
         <v>25</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -651,7 +753,7 @@
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -661,7 +763,7 @@
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -680,7 +782,7 @@
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -691,7 +793,7 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -702,7 +804,7 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -713,7 +815,7 @@
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -724,7 +826,7 @@
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -735,7 +837,7 @@
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -746,7 +848,7 @@
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -757,7 +859,7 @@
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -768,7 +870,7 @@
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -779,7 +881,7 @@
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -790,7 +892,7 @@
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -801,7 +903,7 @@
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -812,7 +914,7 @@
       <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -829,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D602CF8-07FF-4B9E-A880-6F8190426BD7}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -869,10 +971,10 @@
       <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>52</v>
       </c>
     </row>
